--- a/Figures/Human, Social, Labour.xlsx
+++ b/Figures/Human, Social, Labour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5905B-461E-684C-A3B9-5078F3A3F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A7567-05C5-414B-8D0A-16E1A76B819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{CB82084B-5BC0-234B-B931-5409D3EA8491}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Feature</t>
   </si>
@@ -90,13 +90,25 @@
   </si>
   <si>
     <t>IMMIG</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Unique Values</t>
+  </si>
+  <si>
+    <t>HRLYEARN</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +127,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -160,6 +193,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,120 +539,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7548B-0634-F84D-899C-5D8AB790FAE7}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:B13"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2" s="6">
+        <f>_xlfn.XLOOKUP(A2,$E$2:$E$14,$F$2:$F$14)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:C13" si="0">_xlfn.XLOOKUP(A3,$E$2:$E$14,$F$2:$F$14)</f>
+        <v>-</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
